--- a/biology/Botanique/Lumnitzera/Lumnitzera.xlsx
+++ b/biology/Botanique/Lumnitzera/Lumnitzera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lumnitzera est un genre de plantes de la famille des Combretaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (20 juillet 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (20 juillet 2017) :
 Lumnitzera littorea (Jack) Voigt
 Lumnitzera racemosa Willd.</t>
         </is>
@@ -543,12 +557,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lumnitzera est un arbre petit à moyen qui pousse dans les mangroves d'eau salées, les prairies marécageuses et les sols sableux. 
 Il est omniprésent dans l'océan Indien et le Pacifique. 
 Les feuilles du lumnitzera racemosa ont été consommées en période de disette en Mélanésie, dans les îles de l'Ouest Pacifique (Yap, Palau, Célèbes) et en Nouvelle Calédonie.
-Les fruits sont des drupes ovoïdes fibreuses brun noirâtre à maturité, de 1 à 2 cm de longueur et de 0,6 à 0,8 cm de largeur qui contiennent une seule graine elle aussi ovoïde[3].
+Les fruits sont des drupes ovoïdes fibreuses brun noirâtre à maturité, de 1 à 2 cm de longueur et de 0,6 à 0,8 cm de largeur qui contiennent une seule graine elle aussi ovoïde.
 			Arbre L. racemosa
 			Fleurs blanches du L. racemosa
 			Fleurs rouges du L. littorea
